--- a/Documentation/Reports and Papers/Knee_Torque_Test/Paper Gantt chart.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Paper Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06529F2F-7FF4-4BBA-A7E9-658836539885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470EB34-2D4A-4976-98F2-4AF21E1A8D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Ben Bolen</author>
   </authors>
   <commentList>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{2E9B2A04-9D58-413F-971B-1FE252920761}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{2E9B2A04-9D58-413F-971B-1FE252920761}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{EACBC4D3-8B3B-43AD-B12B-C653980635DF}">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{EACBC4D3-8B3B-43AD-B12B-C653980635DF}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Knee Torque paper</t>
+  </si>
+  <si>
+    <t>Update algorithms with new 10,20 mm force equations</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1178,6 +1181,9 @@
     </xf>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1777,10 +1783,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL35"/>
+  <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1817,7 +1823,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="113">
         <f ca="1">TODAY()</f>
-        <v>45260</v>
+        <v>45264</v>
       </c>
       <c r="R1" s="112"/>
       <c r="S1" s="112"/>
@@ -1878,7 +1884,7 @@
       <c r="E4" s="30"/>
       <c r="I4" s="118">
         <f ca="1">I5</f>
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="J4" s="116"/>
       <c r="K4" s="116"/>
@@ -1888,7 +1894,7 @@
       <c r="O4" s="116"/>
       <c r="P4" s="116">
         <f ca="1">P5</f>
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="Q4" s="116"/>
       <c r="R4" s="116"/>
@@ -1898,7 +1904,7 @@
       <c r="V4" s="116"/>
       <c r="W4" s="116">
         <f ca="1">W5</f>
-        <v>45271</v>
+        <v>45278</v>
       </c>
       <c r="X4" s="116"/>
       <c r="Y4" s="116"/>
@@ -1908,7 +1914,7 @@
       <c r="AC4" s="116"/>
       <c r="AD4" s="116">
         <f ca="1">AD5</f>
-        <v>45278</v>
+        <v>45285</v>
       </c>
       <c r="AE4" s="116"/>
       <c r="AF4" s="116"/>
@@ -1918,7 +1924,7 @@
       <c r="AJ4" s="116"/>
       <c r="AK4" s="116">
         <f ca="1">AK5</f>
-        <v>45285</v>
+        <v>45292</v>
       </c>
       <c r="AL4" s="116"/>
       <c r="AM4" s="116"/>
@@ -1928,7 +1934,7 @@
       <c r="AQ4" s="116"/>
       <c r="AR4" s="116">
         <f ca="1">AR5</f>
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="AS4" s="116"/>
       <c r="AT4" s="116"/>
@@ -1938,7 +1944,7 @@
       <c r="AX4" s="116"/>
       <c r="AY4" s="116">
         <f ca="1">AY5</f>
-        <v>45299</v>
+        <v>45306</v>
       </c>
       <c r="AZ4" s="116"/>
       <c r="BA4" s="116"/>
@@ -1948,7 +1954,7 @@
       <c r="BE4" s="116"/>
       <c r="BF4" s="116">
         <f ca="1">BF5</f>
-        <v>45306</v>
+        <v>45313</v>
       </c>
       <c r="BG4" s="116"/>
       <c r="BH4" s="116"/>
@@ -1976,227 +1982,227 @@
       </c>
       <c r="I5" s="31">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="J5" s="31">
         <f ca="1">I5+1</f>
-        <v>45258</v>
+        <v>45265</v>
       </c>
       <c r="K5" s="31">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="L5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45260</v>
+        <v>45267</v>
       </c>
       <c r="M5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="N5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="O5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="P5" s="33">
         <f ca="1">O5+1</f>
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="Q5" s="31">
         <f ca="1">P5+1</f>
-        <v>45265</v>
+        <v>45272</v>
       </c>
       <c r="R5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45266</v>
+        <v>45273</v>
       </c>
       <c r="S5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45267</v>
+        <v>45274</v>
       </c>
       <c r="T5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="U5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="V5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="W5" s="33">
         <f ca="1">V5+1</f>
-        <v>45271</v>
+        <v>45278</v>
       </c>
       <c r="X5" s="31">
         <f ca="1">W5+1</f>
-        <v>45272</v>
+        <v>45279</v>
       </c>
       <c r="Y5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45273</v>
+        <v>45280</v>
       </c>
       <c r="Z5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45274</v>
+        <v>45281</v>
       </c>
       <c r="AA5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45275</v>
+        <v>45282</v>
       </c>
       <c r="AB5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45276</v>
+        <v>45283</v>
       </c>
       <c r="AC5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="AD5" s="33">
         <f ca="1">AC5+1</f>
-        <v>45278</v>
+        <v>45285</v>
       </c>
       <c r="AE5" s="31">
         <f ca="1">AD5+1</f>
-        <v>45279</v>
+        <v>45286</v>
       </c>
       <c r="AF5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45280</v>
+        <v>45287</v>
       </c>
       <c r="AG5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45281</v>
+        <v>45288</v>
       </c>
       <c r="AH5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45282</v>
+        <v>45289</v>
       </c>
       <c r="AI5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45283</v>
+        <v>45290</v>
       </c>
       <c r="AJ5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="AK5" s="33">
         <f ca="1">AJ5+1</f>
-        <v>45285</v>
+        <v>45292</v>
       </c>
       <c r="AL5" s="31">
         <f ca="1">AK5+1</f>
-        <v>45286</v>
+        <v>45293</v>
       </c>
       <c r="AM5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45287</v>
+        <v>45294</v>
       </c>
       <c r="AN5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45288</v>
+        <v>45295</v>
       </c>
       <c r="AO5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45289</v>
+        <v>45296</v>
       </c>
       <c r="AP5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45290</v>
+        <v>45297</v>
       </c>
       <c r="AQ5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45291</v>
+        <v>45298</v>
       </c>
       <c r="AR5" s="33">
         <f ca="1">AQ5+1</f>
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="AS5" s="31">
         <f ca="1">AR5+1</f>
-        <v>45293</v>
+        <v>45300</v>
       </c>
       <c r="AT5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45294</v>
+        <v>45301</v>
       </c>
       <c r="AU5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45295</v>
+        <v>45302</v>
       </c>
       <c r="AV5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45296</v>
+        <v>45303</v>
       </c>
       <c r="AW5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>45297</v>
+        <v>45304</v>
       </c>
       <c r="AX5" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>45298</v>
+        <v>45305</v>
       </c>
       <c r="AY5" s="33">
         <f ca="1">AX5+1</f>
-        <v>45299</v>
+        <v>45306</v>
       </c>
       <c r="AZ5" s="31">
         <f ca="1">AY5+1</f>
-        <v>45300</v>
+        <v>45307</v>
       </c>
       <c r="BA5" s="31">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45301</v>
+        <v>45308</v>
       </c>
       <c r="BB5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45302</v>
+        <v>45309</v>
       </c>
       <c r="BC5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45303</v>
+        <v>45310</v>
       </c>
       <c r="BD5" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>45304</v>
+        <v>45311</v>
       </c>
       <c r="BE5" s="32">
         <f t="shared" ca="1" si="1"/>
-        <v>45305</v>
+        <v>45312</v>
       </c>
       <c r="BF5" s="33">
         <f ca="1">BE5+1</f>
-        <v>45306</v>
+        <v>45313</v>
       </c>
       <c r="BG5" s="31">
         <f ca="1">BF5+1</f>
-        <v>45307</v>
+        <v>45314</v>
       </c>
       <c r="BH5" s="31">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45308</v>
+        <v>45315</v>
       </c>
       <c r="BI5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45309</v>
+        <v>45316</v>
       </c>
       <c r="BJ5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45310</v>
+        <v>45317</v>
       </c>
       <c r="BK5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45311</v>
+        <v>45318</v>
       </c>
       <c r="BL5" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>45312</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2512,7 +2518,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H32" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="45"/>
@@ -2585,7 +2591,7 @@
       </c>
       <c r="E9" s="50">
         <f ca="1">Project_Start</f>
-        <v>45260</v>
+        <v>45264</v>
       </c>
       <c r="F9" s="50">
         <v>45278</v>
@@ -2593,7 +2599,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
@@ -2828,8 +2834,8 @@
     </row>
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="61" t="s">
-        <v>33</v>
+      <c r="B13" s="119" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>26</v>
@@ -2841,12 +2847,12 @@
         <v>45262</v>
       </c>
       <c r="F13" s="64">
-        <v>45263</v>
+        <v>45264</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
@@ -2906,21 +2912,23 @@
       <c r="BL13" s="51"/>
     </row>
     <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="63">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="64">
-        <v>45262</v>
+        <f>F13</f>
+        <v>45264</v>
       </c>
       <c r="F14" s="64">
-        <v>45263</v>
+        <f>E14+1</f>
+        <v>45265</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="5">
@@ -2939,8 +2947,8 @@
       <c r="R14" s="51"/>
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
       <c r="Y14" s="51"/>
@@ -2987,22 +2995,25 @@
     <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="63">
+        <v>0</v>
+      </c>
       <c r="E15" s="64">
-        <v>45263</v>
+        <v>45262</v>
       </c>
       <c r="F15" s="64">
-        <v>45264</v>
+        <f>F14+1</f>
+        <v>45266</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -3016,8 +3027,8 @@
       <c r="R15" s="51"/>
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
       <c r="Y15" s="51"/>
@@ -3064,22 +3075,24 @@
     <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="63"/>
       <c r="E16" s="64">
-        <v>45264</v>
+        <f>F15</f>
+        <v>45266</v>
       </c>
       <c r="F16" s="64">
-        <v>45266</v>
+        <f>E16+1</f>
+        <v>45267</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
@@ -3097,7 +3110,7 @@
       <c r="V16" s="51"/>
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
-      <c r="Y16" s="55"/>
+      <c r="Y16" s="51"/>
       <c r="Z16" s="51"/>
       <c r="AA16" s="51"/>
       <c r="AB16" s="51"/>
@@ -3141,24 +3154,24 @@
     <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="61" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="64">
-        <f>E13</f>
-        <v>45262</v>
+        <f>F16</f>
+        <v>45267</v>
       </c>
       <c r="F17" s="64">
-        <f>F16</f>
-        <v>45266</v>
+        <f>E17+1</f>
+        <v>45268</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51"/>
@@ -3176,7 +3189,7 @@
       <c r="V17" s="51"/>
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
+      <c r="Y17" s="55"/>
       <c r="Z17" s="51"/>
       <c r="AA17" s="51"/>
       <c r="AB17" s="51"/>
@@ -3219,160 +3232,158 @@
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64">
+        <f>E13</f>
+        <v>45262</v>
+      </c>
+      <c r="F18" s="64">
+        <f>F17</f>
+        <v>45268</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="5">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="51"/>
+      <c r="BL18" s="51"/>
+    </row>
+    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="5" t="str">
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="70"/>
-      <c r="AN18" s="70"/>
-      <c r="AO18" s="70"/>
-      <c r="AP18" s="70"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="70"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="70"/>
-      <c r="BG18" s="70"/>
-      <c r="BH18" s="70"/>
-      <c r="BI18" s="70"/>
-      <c r="BJ18" s="70"/>
-      <c r="BK18" s="70"/>
-      <c r="BL18" s="70"/>
-    </row>
-    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="E19" s="74">
-        <f ca="1">TODAY()</f>
-        <v>45260</v>
-      </c>
-      <c r="F19" s="74">
-        <f ca="1">E19+5</f>
-        <v>45265</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="51"/>
-      <c r="BI19" s="51"/>
-      <c r="BJ19" s="51"/>
-      <c r="BK19" s="51"/>
-      <c r="BL19" s="51"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="70"/>
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="70"/>
+      <c r="AO19" s="70"/>
+      <c r="AP19" s="70"/>
+      <c r="AQ19" s="70"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="70"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
+      <c r="BC19" s="70"/>
+      <c r="BD19" s="70"/>
+      <c r="BE19" s="70"/>
+      <c r="BF19" s="70"/>
+      <c r="BG19" s="70"/>
+      <c r="BH19" s="70"/>
+      <c r="BI19" s="70"/>
+      <c r="BJ19" s="70"/>
+      <c r="BK19" s="70"/>
+      <c r="BL19" s="70"/>
     </row>
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="71" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C20" s="72" t="s">
         <v>26</v>
@@ -3382,11 +3393,11 @@
       </c>
       <c r="E20" s="74">
         <f ca="1">TODAY()</f>
-        <v>45260</v>
+        <v>45264</v>
       </c>
       <c r="F20" s="74">
         <f ca="1">E20+5</f>
-        <v>45265</v>
+        <v>45269</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="5">
@@ -3453,7 +3464,7 @@
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="72" t="s">
         <v>26</v>
@@ -3462,17 +3473,17 @@
         <v>0.02</v>
       </c>
       <c r="E21" s="74">
-        <f ca="1">F20+1</f>
-        <v>45266</v>
+        <f ca="1">TODAY()</f>
+        <v>45264</v>
       </c>
       <c r="F21" s="74">
-        <f ca="1">E21+2</f>
-        <v>45268</v>
+        <f ca="1">E21+5</f>
+        <v>45269</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -3534,21 +3545,21 @@
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="73">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="E22" s="74">
-        <f ca="1">F29</f>
-        <v>45269</v>
+        <f ca="1">F21+1</f>
+        <v>45270</v>
       </c>
       <c r="F22" s="74">
         <f ca="1">E22+2</f>
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="5">
@@ -3615,21 +3626,21 @@
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="73">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="74">
-        <f ca="1">F22</f>
-        <v>45271</v>
+        <f ca="1">F30</f>
+        <v>45273</v>
       </c>
       <c r="F23" s="74">
         <f ca="1">E23+2</f>
-        <v>45273</v>
+        <v>45275</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5">
@@ -3696,26 +3707,26 @@
     <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="73">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E24" s="74">
-        <f ca="1">E20</f>
-        <v>45260</v>
+        <f ca="1">F23</f>
+        <v>45275</v>
       </c>
       <c r="F24" s="74">
-        <f ca="1">F23</f>
-        <v>45273</v>
+        <f ca="1">E24+2</f>
+        <v>45277</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
@@ -3776,160 +3787,160 @@
     </row>
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="73">
+        <v>0</v>
+      </c>
+      <c r="E25" s="74">
+        <f ca="1">E21</f>
+        <v>45264</v>
+      </c>
+      <c r="F25" s="74">
+        <f ca="1">F24</f>
+        <v>45277</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="51"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="51"/>
+      <c r="BG25" s="51"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="51"/>
+      <c r="BL25" s="51"/>
+    </row>
+    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="5" t="str">
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="80"/>
-      <c r="AF25" s="80"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="80"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="80"/>
-      <c r="AQ25" s="80"/>
-      <c r="AR25" s="80"/>
-      <c r="AS25" s="80"/>
-      <c r="AT25" s="80"/>
-      <c r="AU25" s="80"/>
-      <c r="AV25" s="80"/>
-      <c r="AW25" s="80"/>
-      <c r="AX25" s="80"/>
-      <c r="AY25" s="80"/>
-      <c r="AZ25" s="80"/>
-      <c r="BA25" s="80"/>
-      <c r="BB25" s="80"/>
-      <c r="BC25" s="80"/>
-      <c r="BD25" s="80"/>
-      <c r="BE25" s="80"/>
-      <c r="BF25" s="80"/>
-      <c r="BG25" s="80"/>
-      <c r="BH25" s="80"/>
-      <c r="BI25" s="80"/>
-      <c r="BJ25" s="80"/>
-      <c r="BK25" s="80"/>
-      <c r="BL25" s="80"/>
-    </row>
-    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="83">
-        <v>0.05</v>
-      </c>
-      <c r="E26" s="84">
-        <f ca="1">E20+2</f>
-        <v>45262</v>
-      </c>
-      <c r="F26" s="84">
-        <f ca="1">E26+3</f>
-        <v>45265</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="51"/>
-      <c r="BB26" s="51"/>
-      <c r="BC26" s="51"/>
-      <c r="BD26" s="51"/>
-      <c r="BE26" s="51"/>
-      <c r="BF26" s="51"/>
-      <c r="BG26" s="51"/>
-      <c r="BH26" s="51"/>
-      <c r="BI26" s="51"/>
-      <c r="BJ26" s="51"/>
-      <c r="BK26" s="51"/>
-      <c r="BL26" s="51"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="80"/>
+      <c r="AP26" s="80"/>
+      <c r="AQ26" s="80"/>
+      <c r="AR26" s="80"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="80"/>
+      <c r="AU26" s="80"/>
+      <c r="AV26" s="80"/>
+      <c r="AW26" s="80"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="80"/>
+      <c r="AZ26" s="80"/>
+      <c r="BA26" s="80"/>
+      <c r="BB26" s="80"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="80"/>
+      <c r="BE26" s="80"/>
+      <c r="BF26" s="80"/>
+      <c r="BG26" s="80"/>
+      <c r="BH26" s="80"/>
+      <c r="BI26" s="80"/>
+      <c r="BJ26" s="80"/>
+      <c r="BK26" s="80"/>
+      <c r="BL26" s="80"/>
     </row>
     <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>26</v>
@@ -3938,17 +3949,17 @@
         <v>0.05</v>
       </c>
       <c r="E27" s="84">
-        <f ca="1">F26</f>
-        <v>45265</v>
+        <f ca="1">E21+2</f>
+        <v>45266</v>
       </c>
       <c r="F27" s="84">
-        <f ca="1">E27+1</f>
-        <v>45266</v>
+        <f ca="1">E27+3</f>
+        <v>45269</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
@@ -4010,21 +4021,21 @@
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="84">
-        <f ca="1">F27+1</f>
-        <v>45267</v>
+        <f ca="1">F27</f>
+        <v>45269</v>
       </c>
       <c r="F28" s="84">
         <f ca="1">E28+1</f>
-        <v>45268</v>
+        <v>45270</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="5">
@@ -4091,21 +4102,21 @@
     <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="82" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="83">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="84">
-        <f ca="1">F28</f>
-        <v>45268</v>
+        <f ca="1">F28+1</f>
+        <v>45271</v>
       </c>
       <c r="F29" s="84">
         <f ca="1">E29+1</f>
-        <v>45269</v>
+        <v>45272</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5">
@@ -4172,26 +4183,26 @@
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="81" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C30" s="82" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="83">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="E30" s="84">
-        <f ca="1">E26</f>
-        <v>45262</v>
+        <f ca="1">F29</f>
+        <v>45272</v>
       </c>
       <c r="F30" s="84">
-        <f ca="1">F29</f>
-        <v>45269</v>
+        <f ca="1">E30+1</f>
+        <v>45273</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
@@ -4252,153 +4263,234 @@
     </row>
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
+      <c r="B31" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="84">
+        <f ca="1">E27</f>
+        <v>45266</v>
+      </c>
+      <c r="F31" s="84">
+        <f ca="1">F30</f>
+        <v>45273</v>
+      </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="5" t="str">
+      <c r="H31" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="51"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="51"/>
+      <c r="AY31" s="51"/>
+      <c r="AZ31" s="51"/>
+      <c r="BA31" s="51"/>
+      <c r="BB31" s="51"/>
+      <c r="BC31" s="51"/>
+      <c r="BD31" s="51"/>
+      <c r="BE31" s="51"/>
+      <c r="BF31" s="51"/>
+      <c r="BG31" s="51"/>
+      <c r="BH31" s="51"/>
+      <c r="BI31" s="51"/>
+      <c r="BJ31" s="51"/>
+      <c r="BK31" s="51"/>
+      <c r="BL31" s="51"/>
+    </row>
+    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="45"/>
-      <c r="AX31" s="45"/>
-      <c r="AY31" s="45"/>
-      <c r="AZ31" s="45"/>
-      <c r="BA31" s="45"/>
-      <c r="BB31" s="45"/>
-      <c r="BC31" s="45"/>
-      <c r="BD31" s="45"/>
-      <c r="BE31" s="45"/>
-      <c r="BF31" s="45"/>
-      <c r="BG31" s="45"/>
-      <c r="BH31" s="45"/>
-      <c r="BI31" s="45"/>
-      <c r="BJ31" s="45"/>
-      <c r="BK31" s="45"/>
-      <c r="BL31" s="45"/>
-    </row>
-    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="89" t="s">
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="45"/>
+      <c r="AX32" s="45"/>
+      <c r="AY32" s="45"/>
+      <c r="AZ32" s="45"/>
+      <c r="BA32" s="45"/>
+      <c r="BB32" s="45"/>
+      <c r="BC32" s="45"/>
+      <c r="BD32" s="45"/>
+      <c r="BE32" s="45"/>
+      <c r="BF32" s="45"/>
+      <c r="BG32" s="45"/>
+      <c r="BH32" s="45"/>
+      <c r="BI32" s="45"/>
+      <c r="BJ32" s="45"/>
+      <c r="BK32" s="45"/>
+      <c r="BL32" s="45"/>
+    </row>
+    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="6" t="str">
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="94"/>
-      <c r="AK32" s="94"/>
-      <c r="AL32" s="94"/>
-      <c r="AM32" s="94"/>
-      <c r="AN32" s="94"/>
-      <c r="AO32" s="94"/>
-      <c r="AP32" s="94"/>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="94"/>
-      <c r="AS32" s="94"/>
-      <c r="AT32" s="94"/>
-      <c r="AU32" s="94"/>
-      <c r="AV32" s="94"/>
-      <c r="AW32" s="94"/>
-      <c r="AX32" s="94"/>
-      <c r="AY32" s="94"/>
-      <c r="AZ32" s="94"/>
-      <c r="BA32" s="94"/>
-      <c r="BB32" s="94"/>
-      <c r="BC32" s="94"/>
-      <c r="BD32" s="94"/>
-      <c r="BE32" s="94"/>
-      <c r="BF32" s="94"/>
-      <c r="BG32" s="94"/>
-      <c r="BH32" s="94"/>
-      <c r="BI32" s="94"/>
-      <c r="BJ32" s="94"/>
-      <c r="BK32" s="94"/>
-      <c r="BL32" s="94"/>
-    </row>
-    <row r="33" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="16"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="4"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="94"/>
+      <c r="AN33" s="94"/>
+      <c r="AO33" s="94"/>
+      <c r="AP33" s="94"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="94"/>
+      <c r="AT33" s="94"/>
+      <c r="AU33" s="94"/>
+      <c r="AV33" s="94"/>
+      <c r="AW33" s="94"/>
+      <c r="AX33" s="94"/>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="94"/>
+      <c r="BB33" s="94"/>
+      <c r="BC33" s="94"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="94"/>
+      <c r="BF33" s="94"/>
+      <c r="BG33" s="94"/>
+      <c r="BH33" s="94"/>
+      <c r="BI33" s="94"/>
+      <c r="BJ33" s="94"/>
+      <c r="BK33" s="94"/>
+      <c r="BL33" s="94"/>
+    </row>
+    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="16"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4421,7 +4513,7 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D32">
+  <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4443,7 +4535,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:BL17">
+  <conditionalFormatting sqref="I13:BL18">
     <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4451,7 +4543,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL24">
+  <conditionalFormatting sqref="I20:BL25">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4459,7 +4551,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BL30">
+  <conditionalFormatting sqref="I27:BL31">
     <cfRule type="expression" dxfId="2" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4467,7 +4559,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL30">
+  <conditionalFormatting sqref="I4:BL31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -4485,9 +4577,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A12" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A18" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A25" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A32" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A19" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A26" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A33" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4516,7 +4608,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D32</xm:sqref>
+          <xm:sqref>D7:D33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Paper Gantt chart.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Paper Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470EB34-2D4A-4976-98F2-4AF21E1A8D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCABF4D-02C6-4358-A405-9247EEAA1ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>Fmax (A)</t>
   </si>
   <si>
-    <t>Fmax (xx)</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Update algorithms with new 10,20 mm force equations</t>
+  </si>
+  <si>
+    <t>Fmax (D)</t>
   </si>
 </sst>
 </file>
@@ -1146,22 +1146,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1173,17 +1173,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1785,8 +1785,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1804,7 +1804,7 @@
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="14"/>
       <c r="B1" s="97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
@@ -1823,7 +1823,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="113">
         <f ca="1">TODAY()</f>
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="R1" s="112"/>
       <c r="S1" s="112"/>
@@ -1882,102 +1882,102 @@
         <v>13</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="118">
+      <c r="I4" s="108">
         <f ca="1">I5</f>
         <v>45264</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116">
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106">
         <f ca="1">P5</f>
         <v>45271</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116">
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106">
         <f ca="1">W5</f>
         <v>45278</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116">
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106">
         <f ca="1">AD5</f>
         <v>45285</v>
       </c>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116">
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106">
         <f ca="1">AK5</f>
         <v>45292</v>
       </c>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116">
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106">
         <f ca="1">AR5</f>
         <v>45299</v>
       </c>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116">
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="106">
         <f ca="1">AY5</f>
         <v>45306</v>
       </c>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116">
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="106">
         <f ca="1">BF5</f>
         <v>45313</v>
       </c>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="117"/>
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="107"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="31">
@@ -2206,12 +2206,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
       <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="E9" s="50">
         <f ca="1">Project_Start</f>
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="F9" s="50">
         <v>45278</v>
@@ -2599,7 +2599,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
@@ -2834,8 +2834,8 @@
     </row>
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="119" t="s">
-        <v>48</v>
+      <c r="B13" s="105" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>26</v>
@@ -3233,7 +3233,7 @@
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>26</v>
@@ -3383,7 +3383,7 @@
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="72" t="s">
         <v>26</v>
@@ -3393,11 +3393,11 @@
       </c>
       <c r="E20" s="74">
         <f ca="1">TODAY()</f>
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="F20" s="74">
         <f ca="1">E20+5</f>
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="5">
@@ -3474,11 +3474,11 @@
       </c>
       <c r="E21" s="74">
         <f ca="1">TODAY()</f>
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="F21" s="74">
         <f ca="1">E21+5</f>
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
@@ -3555,11 +3555,11 @@
       </c>
       <c r="E22" s="74">
         <f ca="1">F21+1</f>
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="F22" s="74">
         <f ca="1">E22+2</f>
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="5">
@@ -3636,11 +3636,11 @@
       </c>
       <c r="E23" s="74">
         <f ca="1">F30</f>
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="F23" s="74">
         <f ca="1">E23+2</f>
-        <v>45275</v>
+        <v>45276</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5">
@@ -3717,11 +3717,11 @@
       </c>
       <c r="E24" s="74">
         <f ca="1">F23</f>
-        <v>45275</v>
+        <v>45276</v>
       </c>
       <c r="F24" s="74">
         <f ca="1">E24+2</f>
-        <v>45277</v>
+        <v>45278</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
@@ -3788,7 +3788,7 @@
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="72" t="s">
         <v>26</v>
@@ -3798,11 +3798,11 @@
       </c>
       <c r="E25" s="74">
         <f ca="1">E21</f>
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="F25" s="74">
         <f ca="1">F24</f>
-        <v>45277</v>
+        <v>45278</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
@@ -3946,15 +3946,15 @@
         <v>26</v>
       </c>
       <c r="D27" s="83">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E27" s="84">
         <f ca="1">E21+2</f>
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="F27" s="84">
         <f ca="1">E27+3</f>
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5">
@@ -4021,7 +4021,7 @@
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="81" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>26</v>
@@ -4031,11 +4031,11 @@
       </c>
       <c r="E28" s="84">
         <f ca="1">F27</f>
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="F28" s="84">
         <f ca="1">E28+1</f>
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="5">
@@ -4102,7 +4102,7 @@
     <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="82" t="s">
         <v>26</v>
@@ -4112,11 +4112,11 @@
       </c>
       <c r="E29" s="84">
         <f ca="1">F28+1</f>
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="F29" s="84">
         <f ca="1">E29+1</f>
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5">
@@ -4183,7 +4183,7 @@
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="82" t="s">
         <v>26</v>
@@ -4193,11 +4193,11 @@
       </c>
       <c r="E30" s="84">
         <f ca="1">F29</f>
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="F30" s="84">
         <f ca="1">E30+1</f>
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
@@ -4264,7 +4264,7 @@
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="82" t="s">
         <v>26</v>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="E31" s="84">
         <f ca="1">E27</f>
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="F31" s="84">
         <f ca="1">F30</f>
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
@@ -4494,6 +4494,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4502,16 +4512,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="23">
@@ -4741,35 +4741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5081,34 +5052,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5129,6 +5102,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Documentation/Reports and Papers/Knee_Torque_Test/Paper Gantt chart.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Paper Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCABF4D-02C6-4358-A405-9247EEAA1ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2DC61-9169-4A09-9551-83E59F826D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>Revise draft</t>
   </si>
   <si>
-    <t>Final draft</t>
-  </si>
-  <si>
     <t>Analysis</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Fmax (D)</t>
+  </si>
+  <si>
+    <t>Working draft</t>
   </si>
 </sst>
 </file>
@@ -1149,19 +1149,22 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1173,17 +1176,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1785,8 +1785,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1804,36 +1804,36 @@
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="14"/>
       <c r="B1" s="97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="113">
+      <c r="Q1" s="114">
         <f ca="1">TODAY()</f>
-        <v>45265</v>
-      </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+        <v>45267</v>
+      </c>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="95" t="s">
@@ -1845,28 +1845,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="111">
+      <c r="Q2" s="112">
         <v>1</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1882,102 +1882,102 @@
         <v>13</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="108">
+      <c r="I4" s="119">
         <f ca="1">I5</f>
         <v>45264</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106">
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117">
         <f ca="1">P5</f>
         <v>45271</v>
       </c>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106">
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117">
         <f ca="1">W5</f>
         <v>45278</v>
       </c>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106">
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117">
         <f ca="1">AD5</f>
         <v>45285</v>
       </c>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106">
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117">
         <f ca="1">AK5</f>
         <v>45292</v>
       </c>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106">
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117">
         <f ca="1">AR5</f>
         <v>45299</v>
       </c>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="106">
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117">
         <f ca="1">AY5</f>
         <v>45306</v>
       </c>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="106">
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="117"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="117">
         <f ca="1">BF5</f>
         <v>45313</v>
       </c>
-      <c r="BG4" s="106"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="107"/>
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="117"/>
+      <c r="BI4" s="117"/>
+      <c r="BJ4" s="117"/>
+      <c r="BK4" s="117"/>
+      <c r="BL4" s="118"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="111" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="31">
@@ -2206,8 +2206,8 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="118"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
@@ -2590,16 +2590,15 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="50">
-        <f ca="1">Project_Start</f>
-        <v>45265</v>
+        <v>45260</v>
       </c>
       <c r="F9" s="50">
         <v>45278</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
@@ -2670,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="54">
-        <v>45275</v>
+        <f>F11</f>
+        <v>45272</v>
       </c>
       <c r="F10" s="54">
-        <f>E10+2</f>
         <v>45277</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
@@ -2741,24 +2740,24 @@
     <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="52" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="53">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="54">
         <v>45260</v>
       </c>
       <c r="F11" s="54">
-        <v>45275</v>
+        <v>45272</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
@@ -2820,7 +2819,7 @@
     <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="58"/>
@@ -2835,7 +2834,7 @@
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>26</v>
@@ -2847,12 +2846,12 @@
         <v>45262</v>
       </c>
       <c r="F13" s="64">
-        <v>45264</v>
+        <v>45267</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
@@ -2914,7 +2913,7 @@
     <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>26</v>
@@ -2924,11 +2923,11 @@
       </c>
       <c r="E14" s="64">
         <f>F13</f>
-        <v>45264</v>
+        <v>45267</v>
       </c>
       <c r="F14" s="64">
         <f>E14+1</f>
-        <v>45265</v>
+        <v>45268</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="5">
@@ -2995,7 +2994,7 @@
     <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>26</v>
@@ -3008,12 +3007,12 @@
       </c>
       <c r="F15" s="64">
         <f>F14+1</f>
-        <v>45266</v>
+        <v>45269</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -3075,7 +3074,7 @@
     <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>26</v>
@@ -3083,11 +3082,11 @@
       <c r="D16" s="63"/>
       <c r="E16" s="64">
         <f>F15</f>
-        <v>45266</v>
+        <v>45269</v>
       </c>
       <c r="F16" s="64">
         <f>E16+1</f>
-        <v>45267</v>
+        <v>45270</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="5">
@@ -3154,7 +3153,7 @@
     <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>26</v>
@@ -3162,11 +3161,11 @@
       <c r="D17" s="63"/>
       <c r="E17" s="64">
         <f>F16</f>
-        <v>45267</v>
+        <v>45270</v>
       </c>
       <c r="F17" s="64">
         <f>E17+1</f>
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5">
@@ -3233,7 +3232,7 @@
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>26</v>
@@ -3245,12 +3244,12 @@
       </c>
       <c r="F18" s="64">
         <f>F17</f>
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
@@ -3312,7 +3311,7 @@
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="67"/>
@@ -3383,7 +3382,7 @@
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="72" t="s">
         <v>26</v>
@@ -3392,17 +3391,16 @@
         <v>0.02</v>
       </c>
       <c r="E20" s="74">
-        <f ca="1">TODAY()</f>
-        <v>45265</v>
+        <v>45268</v>
       </c>
       <c r="F20" s="74">
-        <f ca="1">E20+5</f>
-        <v>45270</v>
+        <f>E20+1</f>
+        <v>45269</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
@@ -3464,7 +3462,7 @@
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="72" t="s">
         <v>26</v>
@@ -3474,16 +3472,15 @@
       </c>
       <c r="E21" s="74">
         <f ca="1">TODAY()</f>
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="F21" s="74">
-        <f ca="1">E21+5</f>
         <v>45270</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -3545,7 +3542,7 @@
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>26</v>
@@ -3554,16 +3551,15 @@
         <v>0.02</v>
       </c>
       <c r="E22" s="74">
-        <f ca="1">F21+1</f>
-        <v>45271</v>
+        <v>45267</v>
       </c>
       <c r="F22" s="74">
-        <f ca="1">E22+2</f>
-        <v>45273</v>
+        <f>E22+2</f>
+        <v>45269</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I22" s="51"/>
@@ -3626,26 +3622,24 @@
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="73">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="E23" s="74">
-        <f ca="1">F30</f>
-        <v>45274</v>
+        <v>45267</v>
       </c>
       <c r="F23" s="74">
-        <f ca="1">E23+2</f>
-        <v>45276</v>
+        <v>45271</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
@@ -3707,7 +3701,7 @@
     <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="72" t="s">
         <v>26</v>
@@ -3716,17 +3710,16 @@
         <v>0.05</v>
       </c>
       <c r="E24" s="74">
-        <f ca="1">F23</f>
-        <v>45276</v>
+        <f>F23</f>
+        <v>45271</v>
       </c>
       <c r="F24" s="74">
-        <f ca="1">E24+2</f>
-        <v>45278</v>
+        <v>45272</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
@@ -3788,7 +3781,7 @@
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="72" t="s">
         <v>26</v>
@@ -3798,16 +3791,16 @@
       </c>
       <c r="E25" s="74">
         <f ca="1">E21</f>
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="F25" s="74">
-        <f ca="1">F24</f>
-        <v>45278</v>
+        <f>F24</f>
+        <v>45272</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
@@ -3869,7 +3862,7 @@
     <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="77"/>
@@ -3940,7 +3933,7 @@
     <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>26</v>
@@ -3950,11 +3943,11 @@
       </c>
       <c r="E27" s="84">
         <f ca="1">E21+2</f>
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="F27" s="84">
         <f ca="1">E27+3</f>
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5">
@@ -4021,7 +4014,7 @@
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>26</v>
@@ -4031,11 +4024,11 @@
       </c>
       <c r="E28" s="84">
         <f ca="1">F27</f>
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="F28" s="84">
         <f ca="1">E28+1</f>
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="5">
@@ -4102,7 +4095,7 @@
     <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="82" t="s">
         <v>26</v>
@@ -4112,11 +4105,11 @@
       </c>
       <c r="E29" s="84">
         <f ca="1">F28+1</f>
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="F29" s="84">
         <f ca="1">E29+1</f>
-        <v>45273</v>
+        <v>45275</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5">
@@ -4183,7 +4176,7 @@
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="82" t="s">
         <v>26</v>
@@ -4193,11 +4186,11 @@
       </c>
       <c r="E30" s="84">
         <f ca="1">F29</f>
-        <v>45273</v>
+        <v>45275</v>
       </c>
       <c r="F30" s="84">
         <f ca="1">E30+1</f>
-        <v>45274</v>
+        <v>45276</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
@@ -4264,7 +4257,7 @@
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="82" t="s">
         <v>26</v>
@@ -4274,11 +4267,11 @@
       </c>
       <c r="E31" s="84">
         <f ca="1">E27</f>
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="F31" s="84">
         <f ca="1">F30</f>
-        <v>45274</v>
+        <v>45276</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
@@ -4494,16 +4487,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4512,6 +4495,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="23">
@@ -4741,6 +4734,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5052,36 +5074,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5102,33 +5122,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>